--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77173.3358890653</v>
+        <v>5151068.340509087</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77173.3358890653</v>
+        <v>5151068.340509087</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112292511.699528</v>
+        <v>41421573.4013454</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12081.87671520616</v>
+        <v>1017966.892270852</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22985.74216437197</v>
+        <v>1832080.702410074</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33886.30606047827</v>
+        <v>2646194.512549296</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45014.59650003628</v>
+        <v>3459492.3512536</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56142.88693959429</v>
+        <v>4272790.189957906</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67271.17737915232</v>
+        <v>5086088.02866221</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78399.46781871031</v>
+        <v>5899385.867366511</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89527.69672268376</v>
+        <v>6712683.706070811</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100655.9871622418</v>
+        <v>7525981.544775112</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111784.2776017957</v>
+        <v>8339279.383479421</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122912.5680413537</v>
+        <v>9152577.222183721</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134040.8584809117</v>
+        <v>9965875.060888028</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145169.1489204697</v>
+        <v>10779172.89959234</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156297.4393600277</v>
+        <v>11592470.73829665</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>167425.7297995859</v>
+        <v>12405768.57700096</v>
       </c>
     </row>
   </sheetData>
